--- a/medicine/Pharmacie/Jean_Montalat/Jean_Montalat.xlsx
+++ b/medicine/Pharmacie/Jean_Montalat/Jean_Montalat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean Montalat, né le 12 juillet 1912 à Tulle et mort le 22 septembre 1971 à Limoges, est un homme politique français. Député de Corrèze, il a notamment fait connaître en 1964 la célèbre formule « La Corrèze avant le Zambèze »[1], souvent attribuée par erreur à Raymond Cartier[2],[3].
+Jean Montalat, né le 12 juillet 1912 à Tulle et mort le 22 septembre 1971 à Limoges, est un homme politique français. Député de Corrèze, il a notamment fait connaître en 1964 la célèbre formule « La Corrèze avant le Zambèze », souvent attribuée par erreur à Raymond Cartier,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Jeunes années</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'officier, Jean Montalat fait ses études au lycée Gay-Lussac à Limoges, puis au Prytanée militaire de la Flèche. Après quelques années passées sur les bancs de la Faculté, à Limoges puis à Strasbourg, il s'installe comme pharmacien à Tulle en 1935.
 </t>
@@ -543,9 +557,11 @@
           <t>Seconde Guerre mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mobilisé en septembre 1939, il rejoint après la défaite le réseau Alliance. Pourchassé par la Gestapo, il parvient en 1943 à gagner l'Algérie et entre à l'état-major des Forces françaises libres, auprès du général Cochet. Au lendemain de la guerre, Montalat se voit décerner, pour son action dans la Résistance, la Légion d'honneur[4], la croix de guerre 1939-1945, la Médaille de la Résistance et la Médaille des évadés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mobilisé en septembre 1939, il rejoint après la défaite le réseau Alliance. Pourchassé par la Gestapo, il parvient en 1943 à gagner l'Algérie et entre à l'état-major des Forces françaises libres, auprès du général Cochet. Au lendemain de la guerre, Montalat se voit décerner, pour son action dans la Résistance, la Légion d'honneur, la croix de guerre 1939-1945, la Médaille de la Résistance et la Médaille des évadés.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre dès avant la guerre des Jeunesses socialistes, Montalat devient à la Libération secrétaire de la fédération socialiste de la Corrèze. À l'occasion des élections d'octobre 1947, il entre au conseil municipal de Tulle et devient moins de deux ans plus tard, le 9 mai 1949, le premier adjoint au maire.
 Candidat aux élections législatives du 17 juin 1951 dans la 1re circonscription de la Corrèze, Montalat figure en deuxième position, derrière Henri Queuille, sur une liste commune au Parti radical, à la SFIO, au MRP et au RGR. La liste emporte deux des quatre sièges à pourvoir. Les deux autres sièges vont aux communistes Léonard Chausson et Jean Goudoux. Le scrutin voit la défaite du candidat du RPF, l'ancien ministre des armées et député sortant Edmond Michelet.
@@ -587,7 +605,7 @@
 Il est partisan du retour au pouvoir du général de Gaulle et vote pour lui le 1er juin 1958.
 Il est l'auteur, ou le diffuseur, de la formule La Corrèze avant le Zambèze (discours à l'Assemblée nationale en juin 1964).
 Élu maire de Tulle en 1959, réélu en 1965, il conserve son mandat jusqu'aux élections de 1971 et décède en septembre de la même année d'un accident de voiture à Naves (Corrèze).
-Il est enterré au cimetière du Puy Saint-Clair à Tulle[5].
+Il est enterré au cimetière du Puy Saint-Clair à Tulle.
 </t>
         </is>
       </c>
